--- a/Exp3/Paper Materials/Reward Capture Literature.xlsx
+++ b/Exp3/Paper Materials/Reward Capture Literature.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu-my.sharepoint.com/personal/jy57_illinois_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\Reward-Capture\Exp3\Paper Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{1D15E589-14A0-469D-9F4B-19BC9E165B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51DD4290-5485-41E9-9498-E920A7D545AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA39D6C5-66D0-4BA5-8535-89DBF337675C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17190" yWindow="0" windowWidth="17205" windowHeight="21150" activeTab="1" xr2:uid="{99E708D0-55EE-4C62-977A-C1F257FD6A8A}"/>
+    <workbookView xWindow="34395" yWindow="0" windowWidth="17205" windowHeight="21150" activeTab="2" xr2:uid="{99E708D0-55EE-4C62-977A-C1F257FD6A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Signal Detection Theory" sheetId="3" r:id="rId1"/>
     <sheet name="Reward Captiure" sheetId="1" r:id="rId2"/>
+    <sheet name="Reward Captiure (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <r>
       <t xml:space="preserve">Theeuwes, J. (2018). Visual Selection: Usually Fast and Automatic; Seldom Slow and Volitional. </t>
@@ -980,6 +982,33 @@
   </si>
   <si>
     <t>We should stick with "attentional priority" rather than attention capture, provies a great reconceptualization of our question in terms of attention as a mechanism. Maybe 'visual hierarchy' might be a possible research topic</t>
+  </si>
+  <si>
+    <t>Posner 1980</t>
+  </si>
+  <si>
+    <t>Attention can be directed in a top-down, goal-directed manner</t>
+  </si>
+  <si>
+    <t>Posner cuing paradigm</t>
+  </si>
+  <si>
+    <t>Jolicoeur, P., 1999. Restricted attentional capacity between sensory modalities. Psychon.Bull. Rev. 6, 87–92</t>
+  </si>
+  <si>
+    <t>List to check out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highly-rewarded task-irrelevant auditory stimuli could enhance per-ceptual sensitivity in a visual discrimination task when presented si-multaneously with targets (Pooresmaeili et al., 2014). This effect wascorrelated with more accurate representation of the target stimulusorientation in primary visual cortex, as well as with cross-modal acti-vations within the temporal lobe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pooresmaeili </t>
+  </si>
+  <si>
+    <t>Anderson 2015b</t>
+  </si>
+  <si>
+    <t>Thisincludes its spatial specificity (e.g., Anderson &amp; Yantis,2012 ;Failing &amp; Theeuwes,2014 ; Theeuwes &amp; Belopolsky,2012 ),contextual specificity (Anderson,2015a, b; Anderson,Laurent, &amp; Yantis,2012 ), extension to different visual prop-erties (e.g., Chelazzi et al.,2014 ; Laurent, Hall, Anderson, &amp;Yantis,2015 ; Lee &amp; Shomstein,2014 ), persistence (Anderson&amp;Yantis,2013), relationship with psychopathology(Anderson, Faulkner, Rilee, Yantis, &amp; Marvel,2013;Anderson, Leal, Hall, Yassa, &amp; Yantis,2014 ), mechanism oflearning (e.g., Sali, Anderson, &amp; Yantis,2014;LePelley,Pearson, Griffiths, &amp; Beesley,2015 ), and neural mechanisms(e.g., Anderson, Laurent, &amp; Yantis,2014 ; Hickey &amp; Peelen,2015 ; Peck, Jangraw, Suzuki, Efem, &amp; Gottlieb,2009; Qi,Zeng, Ding, &amp; Li,2013 )</t>
   </si>
 </sst>
 </file>
@@ -1381,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0ABD3B-D91D-42AC-8709-8E364402E8A5}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,11 +1648,144 @@
         <v>49</v>
       </c>
     </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="22" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C14">
     <sortCondition ref="C2:C14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C40D98-4271-4B8F-A819-A378DF2DFED3}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="45.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3">
+        <v>1999</v>
+      </c>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57CBD16-5AB0-4AB0-92F8-333BD3F59FA6}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Exp3/Paper Materials/Reward Capture Literature.xlsx
+++ b/Exp3/Paper Materials/Reward Capture Literature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\Reward-Capture\Exp3\Paper Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA39D6C5-66D0-4BA5-8535-89DBF337675C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AA8732-B557-4937-86F2-5D16B79427AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34395" yWindow="0" windowWidth="17205" windowHeight="21150" activeTab="2" xr2:uid="{99E708D0-55EE-4C62-977A-C1F257FD6A8A}"/>
+    <workbookView xWindow="34395" yWindow="0" windowWidth="17205" windowHeight="21150" activeTab="3" xr2:uid="{99E708D0-55EE-4C62-977A-C1F257FD6A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Signal Detection Theory" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Reward Captiure (2)" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Reward Captiure'!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <r>
       <t xml:space="preserve">Theeuwes, J. (2018). Visual Selection: Usually Fast and Automatic; Seldom Slow and Volitional. </t>
@@ -1009,6 +1012,88 @@
   </si>
   <si>
     <t>Thisincludes its spatial specificity (e.g., Anderson &amp; Yantis,2012 ;Failing &amp; Theeuwes,2014 ; Theeuwes &amp; Belopolsky,2012 ),contextual specificity (Anderson,2015a, b; Anderson,Laurent, &amp; Yantis,2012 ), extension to different visual prop-erties (e.g., Chelazzi et al.,2014 ; Laurent, Hall, Anderson, &amp;Yantis,2015 ; Lee &amp; Shomstein,2014 ), persistence (Anderson&amp;Yantis,2013), relationship with psychopathology(Anderson, Faulkner, Rilee, Yantis, &amp; Marvel,2013;Anderson, Leal, Hall, Yassa, &amp; Yantis,2014 ), mechanism oflearning (e.g., Sali, Anderson, &amp; Yantis,2014;LePelley,Pearson, Griffiths, &amp; Beesley,2015 ), and neural mechanisms(e.g., Anderson, Laurent, &amp; Yantis,2014 ; Hickey &amp; Peelen,2015 ; Peck, Jangraw, Suzuki, Efem, &amp; Gottlieb,2009; Qi,Zeng, Ding, &amp; Li,2013 )</t>
+  </si>
+  <si>
+    <t>attention
+reward
+salience
+color</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sanz, L. R. D., Vuilleumier, P., &amp; Bourgeois, A. (2018). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cross-modal integration during value-driven attentional capture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. https://doi.org/10.1016/j.neuropsychologia.2018.10.014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Watson, P., Pearson, D., Chow, M., Theeuwes, J., Wiers, R. W., Most, S. B., &amp; le Pelley, M. E. (2019). Capture and Control: Working Memory Modulates Attentional Capture by Reward-Related Stimuli. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Psychological Science</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8), 1174–1185. https://doi.org/10.1177/0956797619855964</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1408,10 +1493,295 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0ABD3B-D91D-42AC-8709-8E364402E8A5}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="45.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{3A0ABD3B-D91D-42AC-8709-8E364402E8A5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E14">
+      <sortCondition descending="1" ref="C1"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
+    <sortCondition ref="C3:C15"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C40D98-4271-4B8F-A819-A378DF2DFED3}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,269 +1807,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2012</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2012</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2012</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2009</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2007</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C14">
-    <sortCondition ref="C2:C14"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C40D98-4271-4B8F-A819-A378DF2DFED3}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="45.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>53</v>
@@ -1740,6 +1847,11 @@
     <row r="7" spans="1:4" ht="345" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1751,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57CBD16-5AB0-4AB0-92F8-333BD3F59FA6}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,7 +1885,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -1783,6 +1895,11 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
